--- a/TemplateExportRette.xlsx
+++ b/TemplateExportRette.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085DBEED-F4BF-E240-872F-62C6060472FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EDA17-9B27-5143-B754-3CE21B77B332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="540" windowWidth="28480" windowHeight="14620" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="540" windowWidth="28480" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -612,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:R1048576"/>
     </sheetView>
   </sheetViews>
@@ -2109,9 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C065D5-B903-2940-824D-88A146E13DB2}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2124,6 +2124,20 @@
       </c>
       <c r="D1" s="4" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2" s="5">
+        <f>SUBTOTAL(9,F5:F10000)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SUBTOTAL(9,G5:G10000)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <f>SUBTOTAL(9,H5:H10000)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">

--- a/TemplateExportRette.xlsx
+++ b/TemplateExportRette.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Cartelle\localhost\waldorf\swapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EDA17-9B27-5143-B754-3CE21B77B332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9065449-C4DC-4463-883D-03A67926E899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="540" windowWidth="28480" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="13560" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -27,25 +27,14 @@
     <sheet name="Spese Didattiche" sheetId="7" r:id="rId12"/>
     <sheet name="Quota Associativa" sheetId="8" r:id="rId13"/>
     <sheet name="Cauzioni" sheetId="10" r:id="rId14"/>
+    <sheet name="Iscrizioni Anno Succ." sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
   <si>
     <t>2018-19</t>
   </si>
@@ -180,6 +169,9 @@
   </si>
   <si>
     <t>Sospesi rette per anno</t>
+  </si>
+  <si>
+    <t>Elenco Pagamenti per Iscrizioni Anno Successivo</t>
   </si>
 </sst>
 </file>
@@ -614,19 +606,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="5" max="16" width="9.33203125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="9.33203125" customWidth="1"/>
+    <col min="5" max="16" width="9.28515625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -634,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E2" s="6">
         <f>SUBTOTAL(9,E5:E1000)</f>
         <v>0</v>
@@ -688,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -753,14 +745,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -768,7 +760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -810,14 +802,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -825,7 +817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -867,14 +859,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -882,7 +874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -924,14 +916,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -939,7 +931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -978,17 +970,17 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -996,7 +988,64 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3FABBE-0056-4A32-B3D6-8F6DFCC4121C}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1038,15 +1087,15 @@
       <selection activeCell="E1" sqref="E1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="5" max="16" width="9.33203125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="9.33203125" customWidth="1"/>
+    <col min="5" max="16" width="9.28515625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E2" s="6">
         <f>SUBTOTAL(9,E5:E1000)</f>
         <v>0</v>
@@ -1108,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1172,15 +1221,15 @@
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="5" max="16" width="9.33203125" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.33203125" customWidth="1"/>
+    <col min="5" max="16" width="9.28515625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E2" s="6">
         <f>SUBTOTAL(9,E5:E1000)</f>
         <v>0</v>
@@ -1242,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1307,14 +1356,14 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="5" max="18" width="9.33203125" customWidth="1"/>
+    <col min="5" max="18" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1384,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E2" s="6">
         <f>SUBTOTAL(9,E5:E1000)</f>
         <v>0</v>
@@ -1389,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1403,7 +1452,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1467,7 +1516,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1481,7 +1530,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1495,7 +1544,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1509,7 +1558,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1523,7 +1572,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1537,7 +1586,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1551,7 +1600,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1565,7 +1614,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1579,7 +1628,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1593,7 +1642,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1607,7 +1656,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1621,7 +1670,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1635,7 +1684,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1649,7 +1698,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1663,7 +1712,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1677,7 +1726,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1691,7 +1740,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1705,7 +1754,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1719,7 +1768,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1733,7 +1782,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1747,7 +1796,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1761,7 +1810,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1775,7 +1824,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1789,7 +1838,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1803,7 +1852,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1817,7 +1866,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1831,7 +1880,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1845,7 +1894,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1859,7 +1908,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1873,7 +1922,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1887,7 +1936,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1901,7 +1950,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1915,7 +1964,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1929,7 +1978,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1943,7 +1992,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1957,7 +2006,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1971,7 +2020,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1985,7 +2034,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1999,7 +2048,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2013,7 +2062,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2027,7 +2076,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2054,12 +2103,12 @@
       <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2113,12 +2162,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F2" s="5">
         <f>SUBTOTAL(9,F5:F10000)</f>
         <v>0</v>
@@ -2140,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2182,15 +2231,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2198,12 +2247,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2233,14 +2282,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2278,14 +2327,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2293,7 +2342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
